--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/应收账款净额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>19.71472</v>
-      </c>
-      <c r="C2" t="n">
-        <v>31.80149</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.91161</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.02882</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.1091</v>
-      </c>
-      <c r="G2" t="n">
-        <v>35.49641</v>
-      </c>
-      <c r="H2" t="n">
-        <v>1.22502</v>
-      </c>
-      <c r="I2" t="n">
-        <v>12.83564</v>
-      </c>
-      <c r="J2" t="n">
-        <v>7.91556</v>
-      </c>
-      <c r="K2" t="n">
-        <v>23.21497</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.17517</v>
-      </c>
-      <c r="M2" t="n">
-        <v>5.2194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>42.60657</v>
-      </c>
-      <c r="O2" t="n">
-        <v>18.35572</v>
-      </c>
-      <c r="P2" t="n">
-        <v>2.17986</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>26.07464</v>
-      </c>
-      <c r="R2" t="n">
-        <v>7.40806</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>6.17129</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.18987</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.06199</v>
-      </c>
-      <c r="W2" t="n">
-        <v>3.73067</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2.51831</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>19.8185</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>57.78211</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>10.59393</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>4.17201</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.0493</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>556.91458</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>30.20682</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.07818</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>17.40664</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>35.25951</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>44.45874</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>3.27013</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>9.40335</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>19.5439</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>11.03357</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>23.96939</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>2.92361</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>32.00087</v>
-      </c>
-      <c r="C3" t="n">
-        <v>56.46491</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.545870000000001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.008829999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>17.17308</v>
-      </c>
-      <c r="G3" t="n">
-        <v>61.58546</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3.26246</v>
-      </c>
-      <c r="I3" t="n">
-        <v>20.39521</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.63627</v>
-      </c>
-      <c r="K3" t="n">
-        <v>38.60128</v>
-      </c>
-      <c r="L3" t="n">
-        <v>7.13098</v>
-      </c>
-      <c r="M3" t="n">
-        <v>10.40748</v>
-      </c>
-      <c r="N3" t="n">
-        <v>71.42825000000001</v>
-      </c>
-      <c r="O3" t="n">
-        <v>25.93572</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.1042</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>35.5613</v>
-      </c>
-      <c r="R3" t="n">
-        <v>11.05825</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.00169</v>
-      </c>
-      <c r="T3" t="n">
-        <v>9.6424</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.09887</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.5114</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.37362</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.0726</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>30.72572</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>79.56367</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>17.10799</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>6.7069</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.03661</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>875.59184</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>60.39095</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.38082</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>34.0376</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>60.66407</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>64.99214000000001</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>3.7095</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>13.1618</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>29.89538</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>13.99562</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>22.99308</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>3.22899</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>53.69116</v>
-      </c>
-      <c r="C4" t="n">
-        <v>81.00003</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15.13864</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0443</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.91869</v>
-      </c>
-      <c r="G4" t="n">
-        <v>92.43002</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6.02558</v>
-      </c>
-      <c r="I4" t="n">
-        <v>28.8407</v>
-      </c>
-      <c r="J4" t="n">
-        <v>19.66834</v>
-      </c>
-      <c r="K4" t="n">
-        <v>61.4871</v>
-      </c>
-      <c r="L4" t="n">
-        <v>10.68861</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14.65909</v>
-      </c>
-      <c r="N4" t="n">
-        <v>115.98378</v>
-      </c>
-      <c r="O4" t="n">
-        <v>31.62162</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.52409</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>55.0706</v>
-      </c>
-      <c r="R4" t="n">
-        <v>15.68953</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>14.96181</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.23038</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.48636</v>
-      </c>
-      <c r="W4" t="n">
-        <v>8.339130000000001</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.73848</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>49.07057</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>129.96988</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>26.55032</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>11.08031</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>1333.56714</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>103.15761</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.61685</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>46.57078</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>90.74285999999999</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>94.19068</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6.17427</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>20.28076</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>46.41094</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>17.54665</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>30.25005</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>4.71657</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
